--- a/data_exports/enrollments_cleaned_1962040.xlsx
+++ b/data_exports/enrollments_cleaned_1962040.xlsx
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45849.07619212963</v>
+        <v>45849.79605324074</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1547,13 +1547,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45849.78936342592</v>
+        <v>45849.80369212963</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.925277777777778</v>
+        <v>3.268055555555556</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1573,24 +1573,24 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>80.53</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>57.53</t>
+          <t>58.45</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>80.53</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>57.53</t>
+          <t>58.45</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45849.7930787037</v>
+        <v>45849.80604166666</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>

--- a/data_exports/enrollments_cleaned_1962040.xlsx
+++ b/data_exports/enrollments_cleaned_1962040.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45849.08805555556</v>
+        <v>45856.34086805556</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>2.129722222222222</v>
+        <v>2.344722222222222</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -565,24 +565,24 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>86.15</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>59.98</t>
+          <t>73.05</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>86.15</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>59.98</t>
+          <t>73.05</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45849.03844907408</v>
+        <v>45855.63825231481</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>5.368611111111111</v>
+        <v>6.709166666666667</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -628,24 +628,24 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>98.30</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>98.30</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45848.16581018519</v>
+        <v>45859.02380787037</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.787222222222222</v>
+        <v>6.475833333333333</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -691,24 +691,24 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>99.36</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>72.42</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>99.36</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>72.42</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45849.77688657407</v>
+        <v>45859.05050925926</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.143611111111111</v>
+        <v>3.475833333333334</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -754,24 +754,24 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>98.05</t>
+          <t>98.27</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>71.77</t>
+          <t>81.77</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>98.05</t>
+          <t>98.27</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>71.77</t>
+          <t>81.77</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45849.70978009259</v>
+        <v>45858.0790162037</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>4.1975</v>
+        <v>6.094444444444444</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -817,24 +817,24 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>96.81</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>65.51</t>
+          <t>87.13</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>96.81</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>65.51</t>
+          <t>87.13</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -854,13 +854,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45848.87805555556</v>
+        <v>45853.87877314815</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>1.228888888888889</v>
+        <v>1.312222222222222</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -880,24 +880,24 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>32.82</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>27.72</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>32.82</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>27.72</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45849.0828587963</v>
+        <v>45858.58071759259</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>8.386388888888888</v>
+        <v>8.719444444444445</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -943,24 +943,24 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>95.59</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>95.59</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -980,13 +980,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45849.16549768519</v>
+        <v>45859.02200231481</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9.608055555555556</v>
+        <v>13.80277777777778</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1006,24 +1006,24 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>85.13</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1043,13 +1043,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45848.06200231481</v>
+        <v>45857.65548611111</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>5.668055555555555</v>
+        <v>7.212222222222223</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1069,24 +1069,24 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45840.8825</v>
+        <v>45856.81076388889</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>6.513055555555556</v>
+        <v>6.549444444444444</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1132,24 +1132,24 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>60.03</t>
+          <t>66.70</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>60.03</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>60.03</t>
+          <t>66.70</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>60.03</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45849.62717592593</v>
+        <v>45859.58627314815</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>10.75722222222222</v>
+        <v>11.48833333333333</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1195,24 +1195,24 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>69.51</t>
+          <t>79.51</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>69.51</t>
+          <t>79.51</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45849.79605324074</v>
+        <v>45859.35971064815</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.739166666666666</v>
+        <v>11.33416666666667</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1258,24 +1258,24 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>56.36</t>
+          <t>66.36</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>56.36</t>
+          <t>66.36</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45849.16427083333</v>
+        <v>45858.7308449074</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10.49027777777778</v>
+        <v>12.80361111111111</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1321,24 +1321,24 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>99.75</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>72.84</t>
+          <t>82.84</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>99.75</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>72.84</t>
+          <t>82.84</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45849.24346064815</v>
+        <v>45859.14898148148</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>5.650555555555556</v>
+        <v>6.142777777777778</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1384,24 +1384,24 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>99.46</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>72.51</t>
+          <t>89.51</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>99.46</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>72.51</t>
+          <t>89.51</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45849.13818287037</v>
+        <v>45858.89769675926</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.047777777777778</v>
+        <v>4.275555555555556</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1447,24 +1447,24 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>99.44</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>72.49</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>99.44</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>72.49</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -1484,13 +1484,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45848.07916666667</v>
+        <v>45858.72424768518</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.389444444444444</v>
+        <v>1.646388888888889</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1510,24 +1510,24 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>42.47</t>
+          <t>53.82</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>33.97</t>
+          <t>48.43</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>42.47</t>
+          <t>53.82</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>33.97</t>
+          <t>48.43</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
@@ -1547,13 +1547,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45849.80369212963</v>
+        <v>45856.73671296296</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>3.268055555555556</v>
+        <v>3.630833333333333</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1573,24 +1573,24 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>80.53</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>58.45</t>
+          <t>85.45</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>80.53</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>58.45</t>
+          <t>85.45</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -1610,13 +1610,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45848.16868055556</v>
+        <v>45859.02219907408</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.468611111111112</v>
+        <v>4.504166666666666</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1636,24 +1636,24 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>79.53</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45849.78546296297</v>
+        <v>45857.97074074074</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2.142222222222222</v>
+        <v>2.723055555555555</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1699,24 +1699,24 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>75.57</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>76.94</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>75.57</t>
+          <t>91.27</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>76.94</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45848.81662037037</v>
+        <v>45856.30025462963</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>3.823888888888889</v>
+        <v>5.139166666666667</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>82.95</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1779,7 +1779,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>72.95</t>
+          <t>82.95</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -1799,13 +1799,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45849.13553240741</v>
+        <v>45856.67368055556</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>6.611666666666666</v>
+        <v>7.541666666666667</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1825,24 +1825,24 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>97.22</t>
+          <t>98.23</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>71.10</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>97.22</t>
+          <t>98.23</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>71.10</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
@@ -1862,13 +1862,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45849.03371527778</v>
+        <v>45859.17806712963</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3.894166666666667</v>
+        <v>4.515833333333333</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>72.98</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1905,7 +1905,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>72.98</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -1925,13 +1925,13 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45848.17709490741</v>
+        <v>45854.79864583333</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>4.017222222222222</v>
+        <v>4.361111111111111</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1951,24 +1951,24 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>97.92</t>
+          <t>98.36</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>71.52</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>97.92</t>
+          <t>98.36</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>71.52</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45849.66097222222</v>
+        <v>45857.015</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>3.016944444444444</v>
+        <v>6.532222222222222</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2014,24 +2014,24 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>78.41</t>
+          <t>76.36</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>59.20</t>
+          <t>65.20</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>78.41</t>
+          <t>76.36</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>59.20</t>
+          <t>65.20</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45849.05936342593</v>
+        <v>45859.27159722222</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2077,24 +2077,24 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>99.07</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45849.63199074074</v>
+        <v>45857.64407407407</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>2.5775</v>
+        <v>3.527222222222222</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2140,24 +2140,24 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>99.34</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>72.45</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>99.26</t>
+          <t>99.34</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>72.45</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2177,13 +2177,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45849.58421296296</v>
+        <v>45859.05246527777</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>5.753333333333333</v>
+        <v>5.856111111111111</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2203,24 +2203,24 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>90.25</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>81.22</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>90.25</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>74.22</t>
+          <t>81.22</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
@@ -2243,7 +2243,7 @@
         <v>45837.07935185185</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
         <v>1.210277777777778</v>
@@ -2266,24 +2266,24 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>17.81</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>14.25</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2303,13 +2303,13 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45848.72769675926</v>
+        <v>45854.91934027777</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>6.168611111111111</v>
+        <v>6.657222222222222</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2329,24 +2329,24 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t>99.57</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>77.76</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45849.75398148148</v>
+        <v>45859.02866898148</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.729444444444444</v>
+        <v>5.304166666666666</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2392,24 +2392,24 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>85.96</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>70.36</t>
+          <t>77.36</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>87.95</t>
+          <t>85.96</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>70.36</t>
+          <t>77.36</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45836.10209490741</v>
+        <v>45859.00879629629</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>10.73166666666667</v>
@@ -2455,24 +2455,24 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>63.39</t>
+          <t>60.10</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>46.09</t>
+          <t>55.48</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>63.39</t>
+          <t>60.10</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>46.09</t>
+          <t>55.48</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -2492,13 +2492,13 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45848.16738425926</v>
+        <v>45859.02127314815</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>4.8075</v>
+        <v>7.320833333333334</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2518,24 +2518,24 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>97.91</t>
+          <t>98.19</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>71.37</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>97.91</t>
+          <t>98.19</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>71.37</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -2555,13 +2555,13 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45845.10123842592</v>
+        <v>45857.89237268519</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>4.566944444444444</v>
+        <v>6.018611111111111</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2581,24 +2581,24 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>95.59</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>70.01</t>
+          <t>80.01</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>95.59</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>70.01</t>
+          <t>80.01</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -2618,10 +2618,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45848.48630787037</v>
+        <v>45859.0328125</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>15.26</v>
@@ -2644,24 +2644,24 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>99.76</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>99.76</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -2681,13 +2681,13 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45849.05168981481</v>
+        <v>45858.7375462963</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.605277777777778</v>
+        <v>3.265555555555556</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2707,24 +2707,24 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>63.33</t>
+          <t>76.52</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>64.74</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>63.33</t>
+          <t>76.52</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>48.24</t>
+          <t>64.74</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
@@ -2744,13 +2744,13 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45848.84982638889</v>
+        <v>45858.1524537037</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>4.659722222222222</v>
+        <v>6.0025</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2770,24 +2770,24 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>91.37</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>67.91</t>
+          <t>75.91</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>91.37</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>67.91</t>
+          <t>75.91</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45849.01105324074</v>
+        <v>45859.13239583333</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>12.00361111111111</v>
+        <v>14.00777777777778</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2833,24 +2833,24 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>69.17</t>
+          <t>70.59</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>51.72</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>69.17</t>
+          <t>70.59</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>51.72</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45849.16646990741</v>
+        <v>45858.72353009259</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.629722222222222</v>
+        <v>5.492222222222222</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2896,24 +2896,24 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>97.21</t>
+          <t>95.30</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>78.77</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>97.21</t>
+          <t>95.30</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>70.77</t>
+          <t>78.77</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
@@ -2933,13 +2933,13 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45847.72584490741</v>
+        <v>45854.05131944444</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>8.07</v>
+        <v>8.364444444444445</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2959,24 +2959,24 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>85.21</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>75.21</t>
+          <t>85.21</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
@@ -2996,13 +2996,13 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45849.10891203704</v>
+        <v>45859.03775462963</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.931666666666667</v>
+        <v>8.173333333333334</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3022,24 +3022,24 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>99.15</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>79.24</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>99.05</t>
+          <t>99.15</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>79.24</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -3059,13 +3059,13 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45849.72017361111</v>
+        <v>45859.13746527778</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.91</v>
+        <v>4.143611111111111</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3085,24 +3085,24 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>60.96</t>
+          <t>71.96</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>60.96</t>
+          <t>71.96</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45849.11650462963</v>
+        <v>45854.96491898148</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
         <v>2.184444444444444</v>
@@ -3148,24 +3148,24 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>73.03</t>
+          <t>70.81</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>51.84</t>
+          <t>64.23</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>73.03</t>
+          <t>70.81</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>51.84</t>
+          <t>64.23</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
@@ -3185,13 +3185,13 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45849.16591435186</v>
+        <v>45859.22498842593</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>3.165</v>
+        <v>4.449722222222222</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3211,24 +3211,24 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>65.68</t>
+          <t>74.68</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>65.68</t>
+          <t>74.68</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
@@ -3248,13 +3248,13 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45849.62373842593</v>
+        <v>45856.72513888889</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>1.051944444444444</v>
+        <v>1.359444444444444</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3274,24 +3274,24 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>64.80</t>
+          <t>64.84</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>51.84</t>
+          <t>64.84</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>64.80</t>
+          <t>64.84</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>51.84</t>
+          <t>64.84</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
@@ -3311,13 +3311,13 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45849.72552083333</v>
+        <v>45859.5575</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>8.796666666666667</v>
+        <v>11.36583333333333</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3337,24 +3337,24 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>68.10</t>
+          <t>85.10</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>68.10</t>
+          <t>85.10</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
@@ -3374,13 +3374,13 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45848.73466435185</v>
+        <v>45857.27657407407</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>3.273611111111111</v>
+        <v>3.473333333333333</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3400,24 +3400,24 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>72.13</t>
+          <t>75.76</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>51.55</t>
+          <t>63.17</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>72.13</t>
+          <t>75.76</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>51.55</t>
+          <t>63.17</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
@@ -3437,13 +3437,13 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45848.83810185185</v>
+        <v>45856.69028935185</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>3.977777777777778</v>
+        <v>5.721944444444444</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3463,24 +3463,24 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>86.78</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>71.85</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>86.78</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>63.85</t>
+          <t>71.85</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45849.32298611111</v>
+        <v>45859.03826388889</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>5.204166666666667</v>
+        <v>7.194166666666667</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3526,24 +3526,24 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>62.50</t>
+          <t>72.76</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>84.24</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>62.50</t>
+          <t>72.76</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
@@ -3563,13 +3563,13 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45849.7196875</v>
+        <v>45854.7725462963</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>7.345833333333333</v>
+        <v>8.691666666666666</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3589,24 +3589,24 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>96.68</t>
+          <t>97.04</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>77.34</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>96.68</t>
+          <t>97.04</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>77.34</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
@@ -3629,7 +3629,7 @@
         <v>45821.56518518519</v>
       </c>
       <c r="E51" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F51" t="n">
         <v>0.4427777777777778</v>
@@ -3652,7 +3652,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3689,13 +3689,13 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45849.12648148148</v>
+        <v>45858.11854166666</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>8.016388888888889</v>
+        <v>8.938611111111111</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3715,24 +3715,24 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>66.26</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>90.78</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>66.26</t>
+          <t>77.02</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45849.11047453704</v>
+        <v>45856.6200925926</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>2.063333333333333</v>
@@ -3778,24 +3778,24 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>68.67</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>68.67</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45849.6502662037</v>
+        <v>45856.67601851852</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>3.589166666666667</v>
+        <v>4.163611111111111</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3841,24 +3841,24 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>65.94</t>
+          <t>79.45</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>65.94</t>
+          <t>79.45</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45849.64170138889</v>
+        <v>45858.53054398148</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>3.625</v>
+        <v>3.755833333333333</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3904,24 +3904,24 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>98.30</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>98.30</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>71.90</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
@@ -3941,13 +3941,13 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45849.24353009259</v>
+        <v>45859.0946875</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>6.651388888888889</v>
+        <v>7.875555555555556</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3967,24 +3967,24 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>97.75</t>
+          <t>97.71</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>71.43</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>97.75</t>
+          <t>97.71</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>71.43</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
@@ -4004,13 +4004,13 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45849.49372685186</v>
+        <v>45859.45530092593</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>15.74944444444444</v>
+        <v>21.20694444444445</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -4030,24 +4030,24 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>65.79</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>65.79</t>
+          <t>76.79</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
@@ -4067,13 +4067,13 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45848.85939814815</v>
+        <v>45859.59209490741</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>5.453888888888889</v>
+        <v>6.192777777777778</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -4093,24 +4093,24 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>78.29</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>96.55</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>78.29</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
@@ -4130,10 +4130,10 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45847.86612268518</v>
+        <v>45853.87856481481</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>5.703611111111111</v>
@@ -4156,24 +4156,24 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>40.51</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>39.39</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>38.14</t>
+          <t>40.51</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>39.39</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
@@ -4193,13 +4193,13 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45849.09184027778</v>
+        <v>45857.55576388889</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>3.238611111111111</v>
+        <v>7.660833333333334</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4219,24 +4219,24 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>68.41</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>68.41</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
@@ -4256,13 +4256,13 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45848.74017361111</v>
+        <v>45856.7331712963</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>2.141666666666667</v>
+        <v>2.236666666666667</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -4282,24 +4282,24 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>97.47</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>97.47</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
@@ -4319,13 +4319,13 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45849.77928240741</v>
+        <v>45858.9712037037</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>3.716944444444445</v>
+        <v>4.323611111111111</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4345,24 +4345,24 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>68.89</t>
+          <t>78.89</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>68.89</t>
+          <t>78.89</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
@@ -4382,13 +4382,13 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45848.55568287037</v>
+        <v>45859.52597222223</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>7.3625</v>
+        <v>7.400555555555556</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4408,24 +4408,24 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>97.24</t>
+          <t>97.55</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>77.79</t>
+          <t>87.79</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>97.24</t>
+          <t>97.55</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>77.79</t>
+          <t>87.79</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45848.75288194444</v>
+        <v>45859.02099537037</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -4471,24 +4471,24 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>97.70</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>71.21</t>
+          <t>88.21</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>97.70</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>71.21</t>
+          <t>88.21</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45848.95271990741</v>
+        <v>45854.99901620371</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>4.983333333333333</v>
+        <v>6.035277777777778</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4534,24 +4534,24 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>99.31</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>99.31</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>79.38</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
@@ -4571,13 +4571,13 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45826.0434375</v>
+        <v>45859.019375</v>
       </c>
       <c r="E66" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2722222222222222</v>
+        <v>0.3169444444444444</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4593,24 +4593,24 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>42.86</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>42.86</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45849.61446759259</v>
+        <v>45849.85136574074</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>0.2541666666666667</v>
@@ -4677,13 +4677,13 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45847.0652662037</v>
+        <v>45857.78248842592</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>1.828888888888889</v>
+        <v>2.148333333333333</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4724,13 +4724,13 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45849.80604166666</v>
+        <v>45859.6321875</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3525</v>
+        <v>0.6119444444444444</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45846.91260416667</v>
+        <v>45858.91457175926</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>11.86777777777778</v>
+        <v>12.01611111111111</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>45838.77513888889</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -4865,13 +4865,13 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45849.59358796296</v>
+        <v>45859.01945601852</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>29.48361111111111</v>
+        <v>32.54166666666666</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
